--- a/data/ML_boxoffice/phase4_models/M1/M1_20251108_190210_尚未加排除清單/preprocessed_M1_20251108_190210/preprocessed_full_檢查用.xlsx
+++ b/data/ML_boxoffice/phase4_models/M1/M1_20251108_190210_尚未加排除清單/preprocessed_M1_20251108_190210/preprocessed_full_檢查用.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Projects\Cinpos_model\data\ML_boxoffice\phase3_prepare\M1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Projects\Cinpos_model\data\ML_boxoffice\phase4_models\M1\M1_20251108_190210_尚未加排除清單\preprocessed_M1_20251108_190210\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A3EF8-FA5C-4111-9272-668D1220DC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE9C9A-A5CF-4B8B-A1D6-E357A7592A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="26310" windowHeight="13860" xr2:uid="{AD9D5557-436F-46A4-BFF3-6B2A0D7C30B4}"/>
+    <workbookView xWindow="2535" yWindow="3345" windowWidth="22170" windowHeight="10740" xr2:uid="{AD9D5557-436F-46A4-BFF3-6B2A0D7C30B4}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessed_full" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,6 +1045,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,6 +1059,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1434,9 +1443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597AA665-7233-4457-B925-D272DAD1B48C}">
   <dimension ref="A1:U917"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4:K4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A891" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A891" sqref="A891:XFD892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1447,35 +1456,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="11" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -59256,133 +59265,133 @@
         <v>21</v>
       </c>
     </row>
-    <row r="891" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A891" s="3">
+    <row r="891" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A891" s="8">
         <v>32099</v>
       </c>
-      <c r="B891" s="3">
-        <v>1</v>
-      </c>
-      <c r="C891" s="3">
-        <v>3</v>
-      </c>
-      <c r="D891" s="3">
-        <v>0</v>
-      </c>
-      <c r="E891" s="3">
-        <v>0</v>
-      </c>
-      <c r="F891" s="6">
+      <c r="B891" s="8">
+        <v>1</v>
+      </c>
+      <c r="C891" s="8">
+        <v>3</v>
+      </c>
+      <c r="D891" s="8">
+        <v>0</v>
+      </c>
+      <c r="E891" s="8">
+        <v>0</v>
+      </c>
+      <c r="F891" s="8">
         <v>6071151</v>
       </c>
-      <c r="G891" s="3">
+      <c r="G891" s="8">
         <v>19442221</v>
       </c>
-      <c r="H891" s="3">
+      <c r="H891" s="8">
         <v>10760922</v>
       </c>
-      <c r="I891" s="3">
+      <c r="I891" s="8">
         <v>59827</v>
       </c>
-      <c r="J891" s="3">
+      <c r="J891" s="8">
         <v>33219</v>
       </c>
-      <c r="K891" s="3">
+      <c r="K891" s="8">
         <v>93</v>
       </c>
-      <c r="L891" s="3">
+      <c r="L891" s="8">
         <v>94</v>
       </c>
-      <c r="M891" s="3">
+      <c r="M891" s="8">
         <v>5</v>
       </c>
-      <c r="N891" s="3">
+      <c r="N891" s="8">
         <v>19442221</v>
       </c>
-      <c r="O891" s="3">
+      <c r="O891" s="8">
         <v>3888444.2</v>
       </c>
-      <c r="P891" s="3">
+      <c r="P891" s="8">
         <v>10760922</v>
       </c>
-      <c r="Q891" s="3">
-        <v>2025</v>
-      </c>
-      <c r="R891" s="3">
+      <c r="Q891" s="8">
+        <v>2025</v>
+      </c>
+      <c r="R891" s="8">
         <v>118</v>
       </c>
-      <c r="S891" s="3">
-        <v>0</v>
-      </c>
-      <c r="T891">
+      <c r="S891" s="8">
+        <v>0</v>
+      </c>
+      <c r="T891" s="13">
         <v>-0.86602540378443804</v>
       </c>
-      <c r="U891" s="1" t="s">
+      <c r="U891" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="892" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A892" s="3">
+    <row r="892" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A892" s="8">
         <v>32099</v>
       </c>
-      <c r="B892" s="3">
-        <v>1</v>
-      </c>
-      <c r="C892" s="3">
+      <c r="B892" s="8">
+        <v>1</v>
+      </c>
+      <c r="C892" s="8">
         <v>4</v>
       </c>
-      <c r="D892" s="3">
-        <v>0</v>
-      </c>
-      <c r="E892" s="3">
-        <v>0</v>
-      </c>
-      <c r="F892" s="6">
+      <c r="D892" s="8">
+        <v>0</v>
+      </c>
+      <c r="E892" s="8">
+        <v>0</v>
+      </c>
+      <c r="F892" s="8">
         <v>2467073</v>
       </c>
-      <c r="G892" s="3">
+      <c r="G892" s="8">
         <v>10760922</v>
       </c>
-      <c r="H892" s="3">
+      <c r="H892" s="8">
         <v>6071151</v>
       </c>
-      <c r="I892" s="3">
+      <c r="I892" s="8">
         <v>33219</v>
       </c>
-      <c r="J892" s="3">
+      <c r="J892" s="8">
         <v>19447</v>
       </c>
-      <c r="K892" s="3">
+      <c r="K892" s="8">
         <v>94</v>
       </c>
-      <c r="L892" s="3">
+      <c r="L892" s="8">
         <v>95</v>
       </c>
-      <c r="M892" s="3">
+      <c r="M892" s="8">
         <v>5</v>
       </c>
-      <c r="N892" s="3">
+      <c r="N892" s="8">
         <v>19442221</v>
       </c>
-      <c r="O892" s="3">
+      <c r="O892" s="8">
         <v>3888444.2</v>
       </c>
-      <c r="P892" s="3">
+      <c r="P892" s="8">
         <v>10760922</v>
       </c>
-      <c r="Q892" s="3">
-        <v>2025</v>
-      </c>
-      <c r="R892" s="3">
+      <c r="Q892" s="8">
+        <v>2025</v>
+      </c>
+      <c r="R892" s="8">
         <v>118</v>
       </c>
-      <c r="S892" s="3">
-        <v>0</v>
-      </c>
-      <c r="T892">
+      <c r="S892" s="8">
+        <v>0</v>
+      </c>
+      <c r="T892" s="13">
         <v>-0.86602540378443804</v>
       </c>
-      <c r="U892" s="1" t="s">
+      <c r="U892" s="14" t="s">
         <v>21</v>
       </c>
     </row>
